--- a/Data Test/signin_web.xlsx
+++ b/Data Test/signin_web.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. UNNES\6. Semester 6\2 - MSIB\CAPSTONE PROJECT\testing-lms\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14D4A5-09EA-4750-95A0-231D5AB8C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA43D2C-2CB0-4ECB-9C1C-6EFB894EC06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2280" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
+    <workbookView xWindow="1890" yWindow="1245" windowWidth="18000" windowHeight="9270" xr2:uid="{45076FA3-564A-4E50-94CC-5AE5A21FCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>email</t>
   </si>
@@ -44,12 +44,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>arch-gmail</t>
-  </si>
-  <si>
-    <t>Archen123!</t>
-  </si>
-  <si>
     <t>tc-id</t>
   </si>
   <si>
@@ -68,21 +62,12 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>archen@gmail.com</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>archenie@gmail.com</t>
-  </si>
-  <si>
-    <t>sal@gmail.com</t>
-  </si>
-  <si>
     <t>Salsa123!</t>
   </si>
   <si>
@@ -92,7 +77,16 @@
     <t>02_Web/02_Auth/SC003_Sign In/email_doesnt_match</t>
   </si>
   <si>
-    <t>Archen321!</t>
+    <t>salsabilarhdsy@gmail.com</t>
+  </si>
+  <si>
+    <t>salsablsy@gmail.com</t>
+  </si>
+  <si>
+    <t>salsablsy</t>
+  </si>
+  <si>
+    <t>Salsa123*</t>
   </si>
 </sst>
 </file>
@@ -495,20 +489,20 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -520,15 +514,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -536,63 +530,63 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -600,8 +594,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{DB699769-90B2-4092-BF89-77910214CBA5}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{2364844D-C789-4CAB-91ED-109E387A62E7}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{7EFD32CE-1A0F-4045-B826-F244723633B5}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7EFD32CE-1A0F-4045-B826-F244723633B5}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{5B6D9B36-2A86-4F04-AB79-11484E2E7206}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
